--- a/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-11/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278183</v>
+        <v>278184</v>
       </c>
       <c r="D10" t="n">
         <v>29587</v>
       </c>
       <c r="E10" t="n">
-        <v>1751972720</v>
+        <v>1751974896</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>134739</v>
+        <v>134740</v>
       </c>
       <c r="D17" t="n">
         <v>19602</v>
       </c>
       <c r="E17" t="n">
-        <v>296786936</v>
+        <v>296788602</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>108911</v>
+        <v>108913</v>
       </c>
       <c r="D19" t="n">
-        <v>13557</v>
+        <v>13558</v>
       </c>
       <c r="E19" t="n">
-        <v>344645316</v>
+        <v>344646966</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>61052</v>
+        <v>61053</v>
       </c>
       <c r="D65" t="n">
         <v>6617</v>
       </c>
       <c r="E65" t="n">
-        <v>334072949</v>
+        <v>334085242</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>26156</v>
+        <v>26157</v>
       </c>
       <c r="D81" t="n">
         <v>2827</v>
       </c>
       <c r="E81" t="n">
-        <v>165028835</v>
+        <v>165046014</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -3895,13 +3895,13 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>10746</v>
+        <v>10747</v>
       </c>
       <c r="D85" t="n">
         <v>1848</v>
       </c>
       <c r="E85" t="n">
-        <v>47042401</v>
+        <v>47050687</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -4387,13 +4387,13 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>98504</v>
+        <v>98505</v>
       </c>
       <c r="D97" t="n">
         <v>22696</v>
       </c>
       <c r="E97" t="n">
-        <v>306864889</v>
+        <v>307060090</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>22087</v>
+        <v>22088</v>
       </c>
       <c r="D104" t="n">
         <v>4583</v>
       </c>
       <c r="E104" t="n">
-        <v>84757147</v>
+        <v>84759332</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16863</v>
+        <v>16865</v>
       </c>
       <c r="D110" t="n">
         <v>2631</v>
       </c>
       <c r="E110" t="n">
-        <v>25926995</v>
+        <v>25928635</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17533</v>
+        <v>17536</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38563671</v>
+        <v>38564635</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19686</v>
+        <v>19691</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56340101</v>
+        <v>56394544</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>9685</v>
+        <v>9687</v>
       </c>
       <c r="D122" t="n">
         <v>1445</v>
       </c>
       <c r="E122" t="n">
-        <v>31910589</v>
+        <v>31911349</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6662</v>
+        <v>6664</v>
       </c>
       <c r="D132" t="n">
         <v>1004</v>
       </c>
       <c r="E132" t="n">
-        <v>13448653</v>
+        <v>13449261</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5662</v>
+        <v>5664</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17023521</v>
+        <v>17026661</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>95006</v>
+        <v>95008</v>
       </c>
       <c r="D150" t="n">
         <v>21156</v>
       </c>
       <c r="E150" t="n">
-        <v>278591057</v>
+        <v>278791733</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>126037</v>
+        <v>126038</v>
       </c>
       <c r="D152" t="n">
         <v>13497</v>
       </c>
       <c r="E152" t="n">
-        <v>715735940</v>
+        <v>715740995</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>50559</v>
+        <v>50560</v>
       </c>
       <c r="D164" t="n">
         <v>11057</v>
       </c>
       <c r="E164" t="n">
-        <v>168353013</v>
+        <v>168354513</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284893</v>
+        <v>284895</v>
       </c>
       <c r="D168" t="n">
         <v>58119</v>
       </c>
       <c r="E168" t="n">
-        <v>1207282860</v>
+        <v>1207328625</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562546</v>
+        <v>562551</v>
       </c>
       <c r="D169" t="n">
         <v>60953</v>
       </c>
       <c r="E169" t="n">
-        <v>1284007328</v>
+        <v>1284022282</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367193</v>
+        <v>367207</v>
       </c>
       <c r="D170" t="n">
         <v>38105</v>
       </c>
       <c r="E170" t="n">
-        <v>2842729773</v>
+        <v>2842859211</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54377</v>
+        <v>54378</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151805965</v>
+        <v>151815965</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357119</v>
+        <v>357124</v>
       </c>
       <c r="D174" t="n">
         <v>69785</v>
       </c>
       <c r="E174" t="n">
-        <v>1015727389</v>
+        <v>1015769599</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125479</v>
+        <v>125481</v>
       </c>
       <c r="D175" t="n">
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>809457773</v>
+        <v>809697991</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235620</v>
+        <v>235623</v>
       </c>
       <c r="D179" t="n">
         <v>29334</v>
       </c>
       <c r="E179" t="n">
-        <v>811492143</v>
+        <v>811591522</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141437</v>
+        <v>141438</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>339799030</v>
+        <v>339801579</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21924</v>
+        <v>21927</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>39902432</v>
+        <v>39904691</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19678</v>
+        <v>19685</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>65947728</v>
+        <v>65970654</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8159,13 +8159,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D189" t="n">
         <v>403</v>
       </c>
       <c r="E189" t="n">
-        <v>8000801</v>
+        <v>8001252</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7453</v>
+        <v>7455</v>
       </c>
       <c r="D192" t="n">
         <v>1870</v>
       </c>
       <c r="E192" t="n">
-        <v>16968292</v>
+        <v>16969326</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5341</v>
+        <v>5342</v>
       </c>
       <c r="D193" t="n">
         <v>1046</v>
       </c>
       <c r="E193" t="n">
-        <v>27521411</v>
+        <v>27691588</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7391</v>
+        <v>7393</v>
       </c>
       <c r="D196" t="n">
         <v>946</v>
       </c>
       <c r="E196" t="n">
-        <v>20454086</v>
+        <v>20466364</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8487,13 +8487,13 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6963</v>
+        <v>6965</v>
       </c>
       <c r="D197" t="n">
         <v>1984</v>
       </c>
       <c r="E197" t="n">
-        <v>9382644</v>
+        <v>9390903</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
@@ -8569,13 +8569,13 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4152</v>
+        <v>4154</v>
       </c>
       <c r="D199" t="n">
         <v>848</v>
       </c>
       <c r="E199" t="n">
-        <v>9010715</v>
+        <v>9011715</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13088</v>
+        <v>13090</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32905556</v>
+        <v>32919097</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8938,13 +8938,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="D208" t="n">
         <v>313</v>
       </c>
       <c r="E208" t="n">
-        <v>3215400</v>
+        <v>3221269</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3625</v>
+        <v>3628</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11062086</v>
+        <v>11063625</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -9430,13 +9430,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>4710</v>
+        <v>4711</v>
       </c>
       <c r="D220" t="n">
         <v>521</v>
       </c>
       <c r="E220" t="n">
-        <v>11654490</v>
+        <v>11655990</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182542</v>
+        <v>182545</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063631676</v>
+        <v>1063734456</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -11685,13 +11685,13 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>39297</v>
+        <v>39298</v>
       </c>
       <c r="D275" t="n">
         <v>6076</v>
       </c>
       <c r="E275" t="n">
-        <v>100470759</v>
+        <v>100474879</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -11726,13 +11726,13 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>216628</v>
+        <v>216629</v>
       </c>
       <c r="D276" t="n">
         <v>23464</v>
       </c>
       <c r="E276" t="n">
-        <v>1209875690</v>
+        <v>1209877432</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -12054,13 +12054,13 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>48471</v>
+        <v>48484</v>
       </c>
       <c r="D284" t="n">
         <v>19343</v>
       </c>
       <c r="E284" t="n">
-        <v>65529711</v>
+        <v>65577519</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -12177,13 +12177,13 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>8567</v>
+        <v>8568</v>
       </c>
       <c r="D287" t="n">
         <v>2445</v>
       </c>
       <c r="E287" t="n">
-        <v>24937672</v>
+        <v>24938099</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -12997,13 +12997,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>39616</v>
+        <v>39617</v>
       </c>
       <c r="D307" t="n">
         <v>8924</v>
       </c>
       <c r="E307" t="n">
-        <v>95215547</v>
+        <v>95225547</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -13161,13 +13161,13 @@
         </is>
       </c>
       <c r="C311" t="n">
-        <v>190850</v>
+        <v>190852</v>
       </c>
       <c r="D311" t="n">
         <v>37720</v>
       </c>
       <c r="E311" t="n">
-        <v>586326804</v>
+        <v>586331627</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -13407,13 +13407,13 @@
         </is>
       </c>
       <c r="C317" t="n">
-        <v>103574</v>
+        <v>103575</v>
       </c>
       <c r="D317" t="n">
         <v>21218</v>
       </c>
       <c r="E317" t="n">
-        <v>302850811</v>
+        <v>302856654</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
